--- a/2.xlsx
+++ b/2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hassan Laptop Point\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="499">
   <si>
     <t>-</t>
   </si>
@@ -777,6 +777,750 @@
   </si>
   <si>
     <t>06543931</t>
+  </si>
+  <si>
+    <t>ACTIVOMIN KAPS 120 STK</t>
+  </si>
+  <si>
+    <t>ACTIVOMIN KAPS 60 STK</t>
+  </si>
+  <si>
+    <t>AKUTUR TROPFEN FL 50 ML</t>
+  </si>
+  <si>
+    <t>ALKALA S PLV 250 G</t>
+  </si>
+  <si>
+    <t>ALPMED FRISCHPFLANZENTUECHLEIN ARNIKA 13</t>
+  </si>
+  <si>
+    <t>ARNICA COMP HEEL TABL DS 250 STK</t>
+  </si>
+  <si>
+    <t>AROMALIFE ARGANOEL NATURBELASSEN BIO 75 M</t>
+  </si>
+  <si>
+    <t>AROMALIFE WEIHRAUCH AETH/OEL, FL 5 ML</t>
+  </si>
+  <si>
+    <t>BIOKOSMA ACTIVE REINIGUNGSMILCH GES 150 ML</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN AMINOVITAL PLV GRAPEFRUIT 20 S</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN ANTI-OX-KOMPLEX KAPS DS 60 STK</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN B-KOMPLEX TABL 100 STK</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN BETA CAROTIN KAPS 6 MG DS 100 S</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN BETA-CAROTIN KAPS DS 100 STK</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN BIOTICS-A KAPS 30 STK</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN BIOTICS-FEM KAPS 14 STK</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN BIOTICS-G PLV BTL 30 STK</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN BIOTICS-O TABL BLIST 30 STK</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN BRAIN PS KAPS DS 90 STK</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN CALCIUM D3 TOFFEES 115 G</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN CARDIOVITAL KAPS 30 STK</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN CHONDROVITAL TABL DS 100 STK</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN CHONDROVITAL TABL DS 180 STK</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN CHONDROVITAL, TABL DS 90 STK</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN CHROMVITAL TABL (150 STK</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN CHROMVITAL TABL DISP 150 STK</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN COENZYM Q10 KAPS 100 MG DS 30</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN COENZYM Q10 KAPS 30 MG 180 STK</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN COENZYM Q10 LIQ 20 ML</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN COENZYM Q10 LUTSCHTABL 50 MG</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN COLLAGEN PLV DS 110 G</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN CURCUMA-KOMPLEX KAPS BLIST 60</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN DOLOMIT PLUS TABL 150 STK</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN DOLOMIT TABL 240 STK</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN EISEN PLUS WEICHKAPS DS 150 ST</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN EPA WEICHKAPS 500 MG DS 180 ST</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN ΕΡΟ WEICHKAPS 500 MG 180 STK</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN EYEVITAL WEICHKAPS DS 100 STK</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN FLEXVITAL KAPS 30 STK</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN HAIR &amp; NAILS TABL 240 STK</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN HAIR &amp; NAILS TABL 90 STK</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN IMMUNVITAL KAPS DS 60 STK</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN IMMUNVITAL SAFT BTL 20 STK</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN L-ARGININ TABL 100 STK</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN L-ARGININ/L-ORNITHIN TABL DS 100</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN L-CARNITIN TABL DS 100 STK</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN L-CYSTEIN TABL DS 100 STK</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN L-LYSIN TABL DS 90 STK</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN L-METHIONIN TABL 100 STK</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN LECITHIN GRANULAT DS 400 G</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN MAGNESIUMOROTAT TABL DS 120 S</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN MAGNESIUMVITAL DIRECT STICK 30</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN L-GLUTAMIN PLV DS 180 G</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN L-GLUTAMIN TABL 100 STK</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN L-LYSIN TABL DS 100 STK</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN MAGNESIUMVITAL TABL DS 120 STK</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN MOOD KAPS 60 STK</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN MULTIVITAMIN KAPS DS 60 STK</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN MULTIVITAMIN-MINERAL CELA TABL</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN OMEGA 3-EPA WEICHKAPS DS 100</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN OMEGA-3 DHA WEICHKAPS DS 100</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN OMEGA 3 KAPS VEGAN DS 60 STK</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN OMEGA-3 LIQUID FL 150 ML</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN OSTEOVITAL FORTE TABL 120 STK</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN PROBASE GETRAENKEPULVER DS</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN PROBASE TABL 150 STK</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN PROBASE TABL 300 STK</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN SCHWANGERSCHAFT&amp;STILLZEIT TA</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN SELENVITAL TABL 100 STK</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN SPIRULINA TABL DS 180 STK</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN SPORT TABL 120 STK</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN SUN KAPS 30 STK</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN TAURIN TABL 100 STK</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN TOPFIT KAPS DS 60 STK</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN VITAMIN B12 BOOST MINITABL 100 S</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN VITAMIN B6 TABL 100 MG DS 100 ST</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN VITAMIN C KOMPLEX TABL 120 STK</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN VITAMIN C RET KAPS 500 MG DS 10</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN VITAMIN D3 800 IE SPR 20 ML</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN VITAMIN D3 KAPS 2000 IE DS 60 STK</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN VITAMIN D3 KAPS 600 IE 100 STK</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN VITAMIN E WEICHKAPS 100 IE DS 10</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN VITAMIN E WEICHKAPS 400 IE DS 10</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN VITAMIN K2 WEICHKAPS 180 MCG 6</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN VITAMINI GUMMIS DS 30 STK</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN ZINK-C TOFFEES 115 G</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN ZINKGLUKONAT TABL 30 MG 100 ST</t>
+  </si>
+  <si>
+    <t>BURGERSTEIN ZINKVITAL TABL 14 MG DS 100 STK</t>
+  </si>
+  <si>
+    <t>CERES ABSINTHIUM URTINKT FL 20 ML</t>
+  </si>
+  <si>
+    <t>CERES AESCULUS URTINKT FL 20 ML</t>
+  </si>
+  <si>
+    <t>CERES ALCHEMILLA COMP TROPFEN 20 ML</t>
+  </si>
+  <si>
+    <t>CERES ALCHEMILLA URTINKT FL 20 ML</t>
+  </si>
+  <si>
+    <t>CERES ALLIUM URSINUM URTINKT FL 20 ML</t>
+  </si>
+  <si>
+    <t>CERES ANGELICA ARCHANGELICA URTINKT FL 20</t>
+  </si>
+  <si>
+    <t>CERES AVENA SATIVA URTINKT FL 20 ML</t>
+  </si>
+  <si>
+    <t>CERES BELLIS PERENNIS URTINKT FL 20 ML</t>
+  </si>
+  <si>
+    <t>CERES CAPSELLA BURSA PASTORIS URTINKT FL 2</t>
+  </si>
+  <si>
+    <t>CERES CARDUUS MARIANUS URTINKT FL 20 ML</t>
+  </si>
+  <si>
+    <t>CERES CENTAURIUM URTINKT FL 20 ML</t>
+  </si>
+  <si>
+    <t>CERES CHAMOMILLA URTINKT FL 20 ML</t>
+  </si>
+  <si>
+    <t>CERES CICHORIUM INTYBUS RADIX URTINKT FL 20</t>
+  </si>
+  <si>
+    <t>CERES CIMICIFUGA D 2 DILUTION FL 20 ML</t>
+  </si>
+  <si>
+    <t>CERES CORIANDRUM URTINKT FL 20 ML</t>
+  </si>
+  <si>
+    <t>CERES CRATAEGUS URTINKT FL 20 ML</t>
+  </si>
+  <si>
+    <t>CERES CYNARA SCOLYMUS URTINKT FL 20 ML</t>
+  </si>
+  <si>
+    <t>CERES ECHINACEA PURPUREA COMP. TROPFEN F</t>
+  </si>
+  <si>
+    <t>CERES ECHINACEA PURPUREA URTINKT FL 20 ML</t>
+  </si>
+  <si>
+    <t>CERES EQUISETUM ARVENSE URTINKT FL 20 ML</t>
+  </si>
+  <si>
+    <t>CERES GENTIANA LUTEA URTINKT FL 20 ML</t>
+  </si>
+  <si>
+    <t>CERES GERANIUM ROBERTIANUM URTINKT FL 20</t>
+  </si>
+  <si>
+    <t>CERES GINKGO DRYOPTERIS COMP TROPFEN 20</t>
+  </si>
+  <si>
+    <t>CERES GINKGO URTINKT FL, 20 ML</t>
+  </si>
+  <si>
+    <t>CERES GLECHOMA HEDERACEA URTINKT FL 20 ML</t>
+  </si>
+  <si>
+    <t>CERES HEDERA COMP TROPFEN 20 ML</t>
+  </si>
+  <si>
+    <t>CERES HEDERA HELIX URTINKT FL 20 ML</t>
+  </si>
+  <si>
+    <t>CERES HYPERICUM COMP. TROPFEN 20 ML</t>
+  </si>
+  <si>
+    <t>CERES HYPERICUM URTINKT 20 ML</t>
+  </si>
+  <si>
+    <t>CERES IMPERATORIA OSTRUTHIUM URTINKT 20 M</t>
+  </si>
+  <si>
+    <t>CERES LAVANDULA URTINKT FL 20 ML</t>
+  </si>
+  <si>
+    <t>CERES LUPULUS URTINKT FL 20 ML</t>
+  </si>
+  <si>
+    <t>CERES LYCOPUS EUROPAEUS URTINKT FL 20 ML</t>
+  </si>
+  <si>
+    <t>CERES MELILOTUS URTINKT FL 20 ML</t>
+  </si>
+  <si>
+    <t>CERES MELISSA COMP TROPFEN 20 ML</t>
+  </si>
+  <si>
+    <t>CERES MELISSA OFFICINALIS URTINKT FL 20 ML</t>
+  </si>
+  <si>
+    <t>CERES MILLEFOLIUM URTINKT FL. 20 ML</t>
+  </si>
+  <si>
+    <t>CERES NIEREN BLASE-KOMPLEX TROPFEN FL 20</t>
+  </si>
+  <si>
+    <t>CERES PASSIFLORA URTINKT FL 20 ML</t>
+  </si>
+  <si>
+    <t>CERES PETASITES 06 DILUTION FL 20 ML</t>
+  </si>
+  <si>
+    <t>CERES PLANTAGO LANCEOLATA URTINKT FL 20 ML</t>
+  </si>
+  <si>
+    <t>CERES RIBES NIGRUM FOLIUM URTINKT 20 ML</t>
+  </si>
+  <si>
+    <t>CERES ROSMARINUS RECENS URTINKT FL 20 ML</t>
+  </si>
+  <si>
+    <t>CERES SALVIA URTINKT FL 20 ML</t>
+  </si>
+  <si>
+    <t>CERES SAMBUCUS NIGRA URTINKT FL 20 ML</t>
+  </si>
+  <si>
+    <t>CERES SOLIDAGO URTINKT FL 20 ML</t>
+  </si>
+  <si>
+    <t>CERES SPEZIALPFLEGE VIOLA 50 ML</t>
+  </si>
+  <si>
+    <t>CERES TARAXACUM COMP LEBER-GALLE-TROPFE</t>
+  </si>
+  <si>
+    <t>CERES TARAXACUM URTINKT FL 20 ML</t>
+  </si>
+  <si>
+    <t>CERES THYMUS VULGARIS URTINKT FL 20 ML</t>
+  </si>
+  <si>
+    <t>CERES TROPAEOLUM MAJUS URTINKT FL 20 ML</t>
+  </si>
+  <si>
+    <t>CERES URTICA DIOICA URTINIKT FL 20 ML</t>
+  </si>
+  <si>
+    <t>CERES URTICA SAMBUCUS COMP TROPFEN 20 ML</t>
+  </si>
+  <si>
+    <t>CERES VALERIANA COMP TROPFEN 20 ML</t>
+  </si>
+  <si>
+    <t>CERES VALERIANA URTINKT FL 20 ML</t>
+  </si>
+  <si>
+    <t>CERES VIOLA TRICOLOR URTINKT FL 20 ML</t>
+  </si>
+  <si>
+    <t>CERES VISCUM URTINKT 20 ML</t>
+  </si>
+  <si>
+    <t>CERIVIKEHL TROPFEN FL 30 ML</t>
+  </si>
+  <si>
+    <t>CUTIS SUIS COMP HEEL INJ LOES 10 AMP 2.2 ML</t>
+  </si>
+  <si>
+    <t>CYSTUS 052 BIO LUTSCHTABL HONIG-ORANGE 132</t>
+  </si>
+  <si>
+    <t>CYSTUS 052 BIO LUTSCHTABLETTEN 132 STK</t>
+  </si>
+  <si>
+    <t>EUPHORBIUM COMP S HEEL NASENSPRAY 20 ML</t>
+  </si>
+  <si>
+    <t>EXMYKEHL SUPP D 3 10 STK</t>
+  </si>
+  <si>
+    <t>EXMYKEHL TROPFEN D5 FL 10 ML</t>
+  </si>
+  <si>
+    <t>FOOTNER HORNHAUT WEG SOCKEN BAREFOOT R</t>
+  </si>
+  <si>
+    <t>FORTAKEHL KAPS D4 TRIT 20 STK</t>
+  </si>
+  <si>
+    <t>FORTAKEHL TROPFEND 5 DIL FL 10 ML</t>
+  </si>
+  <si>
+    <t>GALIUM APARINE COMP HEEL TROPFEN FL 100 ML</t>
+  </si>
+  <si>
+    <t>GOLOY BODY LOTION 200 ML</t>
+  </si>
+  <si>
+    <t>GOLOY CLEANSING MILK 150 ML</t>
+  </si>
+  <si>
+    <t>GOLOY CONDITIONER 200 ML</t>
+  </si>
+  <si>
+    <t>GOLOY DEO SPRAY 60 ML</t>
+  </si>
+  <si>
+    <t>GOLOY EYE CREAM 15 ML</t>
+  </si>
+  <si>
+    <t>GOLOY FACE CREAM 50 ML</t>
+  </si>
+  <si>
+    <t>GOLOY FACE CREAM INTENSE 50 ML</t>
+  </si>
+  <si>
+    <t>GOLOY FACE MASK TOPF 50 ML</t>
+  </si>
+  <si>
+    <t>GOLOY FACE SERUM 30 ML</t>
+  </si>
+  <si>
+    <t>GOLOY HAIR &amp; SCALP LOTION 50 ML</t>
+  </si>
+  <si>
+    <t>GOLOY HAND CREAM 75 ML</t>
+  </si>
+  <si>
+    <t>GOLOY MASSAGE LOTION 100 ML</t>
+  </si>
+  <si>
+    <t>GOLOY MASSAGE LOTION FL 125 ML</t>
+  </si>
+  <si>
+    <t>GOLOY SHAMPOO FINE &amp; NORMAL HAIR 200 ML</t>
+  </si>
+  <si>
+    <t>GOLOY VEND WELL LOTION FL 125 ML</t>
+  </si>
+  <si>
+    <t>INHALANT LOES FL 30 ML</t>
+  </si>
+  <si>
+    <t>KERECIS 1 PRIMARY WOUND DRESSIN SPR 10 ML</t>
+  </si>
+  <si>
+    <t>KERECIS WUNDE FUER KLEINE WUNDEN SPR 10 M</t>
+  </si>
+  <si>
+    <t>LARIFIKEHL KAPS D 4 20 STK</t>
+  </si>
+  <si>
+    <t>LIV 52 TABL DS 100 STK</t>
+  </si>
+  <si>
+    <t>LUFFA COMP HEEL NASENSPRAY 20 ML</t>
+  </si>
+  <si>
+    <t>MANUKA HEALTH HONIG +400 MGO 250 G</t>
+  </si>
+  <si>
+    <t>MANUKA HEALTH HONIG +400 MGO 500 G</t>
+  </si>
+  <si>
+    <t>MUCOHAEM SUPP 10 STK</t>
+  </si>
+  <si>
+    <t>MUCOKEHL GTT OPHT D 5 FL 5 MI</t>
+  </si>
+  <si>
+    <t>MUCOKEHL TABL D 5 20 STK</t>
+  </si>
+  <si>
+    <t>MUCOKEHL TROPFEN D 5 FL 10 ML</t>
+  </si>
+  <si>
+    <t>MUCOSA COMP HEEL TABL DS 50 STK</t>
+  </si>
+  <si>
+    <t>MYOSOTIS COMP HEEL TABL 50 STK</t>
+  </si>
+  <si>
+    <t>MYOSOTIS COMP HEEL TROPFEN FL 100 ML</t>
+  </si>
+  <si>
+    <t>NAILNER NAGELPILZ-STIFT 2-IN-1</t>
+  </si>
+  <si>
+    <t>NEUREXAN TABL 50 STK</t>
+  </si>
+  <si>
+    <t>NEUREXAN TROPFEN FL 30 ML</t>
+  </si>
+  <si>
+    <t>NICOLAY INHALATOR PLASTIK</t>
+  </si>
+  <si>
+    <t>NICOLAY INHALATOR PLASTIK (</t>
+  </si>
+  <si>
+    <t>NIGERSAN KAPS D 4 20 STK</t>
+  </si>
+  <si>
+    <t>NOTAKEHL INJ LOES D 5 10 AMP 1 ML</t>
+  </si>
+  <si>
+    <t>NOTAKEHL KAPS D 4 20 STK</t>
+  </si>
+  <si>
+    <t>NOTAKEHL SALBE D 3 TB 30 G</t>
+  </si>
+  <si>
+    <t>NOTAKEHL TABL D 5 20 STK</t>
+  </si>
+  <si>
+    <t>NOTAKEHL TROPFEN D 5 FL 10 ML</t>
+  </si>
+  <si>
+    <t>OKOUBASAN TROPFEN FL 30 ML</t>
+  </si>
+  <si>
+    <t>PEFRAKEHL KAPS D 4 20 STK</t>
+  </si>
+  <si>
+    <t>PEKANA CEANOTHUS AMERICANUS COMP TROPFE</t>
+  </si>
+  <si>
+    <t>PFLUEGER SCHUESSLER NR11 SILICEA TABL D 12</t>
+  </si>
+  <si>
+    <t>PFLUEGER SCHUESSLER NR11 SILICEA TROPFEN</t>
+  </si>
+  <si>
+    <t>PFLUEGER SCHUESSLER NR12 CALC SULF TABL D</t>
+  </si>
+  <si>
+    <t>PFLUEGER SCHUESSLER NR14 KAL BROM TABL D</t>
+  </si>
+  <si>
+    <t>PFLUEGER SCHUESSLER NR2 CALC PHOS TABL D</t>
+  </si>
+  <si>
+    <t>PFLUEGER SCHUESSLER NR22 CALC CARB TABL D</t>
+  </si>
+  <si>
+    <t>PFLUEGER SCHUESSLER NR23 NATR BICAR TABL</t>
+  </si>
+  <si>
+    <t>PFLUEGER SCHUESSLER NR6 KAL SULF TABL D 6 2</t>
+  </si>
+  <si>
+    <t>PHYTOVIR LIP PROTECT SPF50+</t>
+  </si>
+  <si>
+    <t>PINIKEHL TROFFEN D 5 FL 10 ML</t>
+  </si>
+  <si>
+    <t>PROPIONIBACTERIUM AVIDUM KAPS D 5 5 STK</t>
+  </si>
+  <si>
+    <t>QUENTAKEHL INJ LOES D 5 10 AMP 1 ML</t>
+  </si>
+  <si>
+    <t>QUENTAKEHL KAPS D 4 20 STK</t>
+  </si>
+  <si>
+    <t>QUENTAKEHL TROPFEN D 5 FL 10 ML</t>
+  </si>
+  <si>
+    <t>SANUKEHL COLI TROPFEN D 6 FL 10 ML</t>
+  </si>
+  <si>
+    <t>SANUKEHL PSEU TROPFEN D 6 FL 10 ML</t>
+  </si>
+  <si>
+    <t>SANUM ASPERGILLUS NIGER KAPS D 4 20 STK</t>
+  </si>
+  <si>
+    <t>SANUM ASPERGILLUS NIGER TROPFEN D 5 10 ML</t>
+  </si>
+  <si>
+    <t>SANUM BACILLUS CEREUS KAPS D 6 5 STK</t>
+  </si>
+  <si>
+    <t>SANUM BACILLUS SUBTILIS KAPS D 6 5 STK</t>
+  </si>
+  <si>
+    <t>SANUM DROSERA COMP TROPFEN 100 ML</t>
+  </si>
+  <si>
+    <t>SANUM GRIFOLA FRONDOSA TROPFEN D 5 10 ML</t>
+  </si>
+  <si>
+    <t>SANUM MUCOR RACEMOSUS COMP TROPFEN D 5</t>
+  </si>
+  <si>
+    <t>SANUM MYCOBACTERIUM PHLEI KAPS D 6 5 STK</t>
+  </si>
+  <si>
+    <t>SONNENTOR EINE MUETZE VOLL SCHLAF TEE BIO</t>
+  </si>
+  <si>
+    <t>SONNENTOR GRIECHISCHER BERGTEE BIO -40 G</t>
+  </si>
+  <si>
+    <t>SONNENTOR SCHAREMACHER GEWUERZ BIO</t>
+  </si>
+  <si>
+    <t>SONNENTOR WEISSER TEE PAI MU TAN BIO 40 G</t>
+  </si>
+  <si>
+    <t>SPENGLER VIRUS INF A COMP SPRAY D 13 NEU 50</t>
+  </si>
+  <si>
+    <t>TRAUMEEL S CREME TB 100 G</t>
+  </si>
+  <si>
+    <t>TRAUMEEL S CREME TB 50 G</t>
+  </si>
+  <si>
+    <t>TRAUMEEL S GEL TB 100 G</t>
+  </si>
+  <si>
+    <t>TRAUMEEL S INJ LOES 10 AMP 2.2 ML</t>
+  </si>
+  <si>
+    <t>TRAUMEEL TABL DS 250 STK</t>
+  </si>
+  <si>
+    <t>TRAUMEEL TABL DS 50 STK</t>
+  </si>
+  <si>
+    <t>UBICHINON COMP HEEL TABL DS 50 STK</t>
+  </si>
+  <si>
+    <t>VALERIANA COMP HEEL TROPFEN FL 30 ML</t>
+  </si>
+  <si>
+    <t>VERTIGOHEEL TABL DS 250 STK</t>
+  </si>
+  <si>
+    <t>VERTIGOHEEL TABL DS 50 STK</t>
+  </si>
+  <si>
+    <t>VERTIGOHEEL TROPFEN FL 100 ML</t>
+  </si>
+  <si>
+    <t>VIBURCOL FLUESSIGKEIT ZUM EINNEHMEN 15 MO</t>
+  </si>
+  <si>
+    <t>VIBURCOL N SUPP 12 STK</t>
+  </si>
+  <si>
+    <t>VIBURCOL N SUPP 60 STK</t>
+  </si>
+  <si>
+    <t>WOBENZYM FILMTABL MAGENSAFTRESISTENT 100</t>
+  </si>
+  <si>
+    <t>WOBENZYM FILMTABL MAGENSAFTRESISTENT 200</t>
+  </si>
+  <si>
+    <t>WOBENZYM FILMTABL MAGENSAFTRESISTENT DS</t>
+  </si>
+  <si>
+    <t>ZEEL COMP HEEL TABL DS 250 STK</t>
+  </si>
+  <si>
+    <t>SUN VITAL SUN PROTECTION 200 ML</t>
   </si>
 </sst>
 </file>
@@ -818,7 +1562,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -827,6 +1571,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1107,10 +1858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C251"/>
+  <dimension ref="A1:D251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1118,7 +1869,7 @@
     <col min="1" max="3" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1128,8 +1879,11 @@
       <c r="C1" s="2">
         <v>626.5</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1139,8 +1893,11 @@
       <c r="C2" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1150,8 +1907,11 @@
       <c r="C3" s="2">
         <v>23.9</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1161,8 +1921,11 @@
       <c r="C4" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1172,8 +1935,11 @@
       <c r="C5" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1183,8 +1949,11 @@
       <c r="C6" s="2">
         <v>91.9</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1194,8 +1963,11 @@
       <c r="C7" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1205,8 +1977,11 @@
       <c r="C8" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1216,8 +1991,11 @@
       <c r="C9" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1227,8 +2005,11 @@
       <c r="C10" s="2">
         <v>99.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1238,8 +2019,11 @@
       <c r="C11" s="2">
         <v>249</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -1249,8 +2033,11 @@
       <c r="C12" s="2">
         <v>520.20000000000005</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -1260,8 +2047,11 @@
       <c r="C13" s="2">
         <v>44</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1271,8 +2061,11 @@
       <c r="C14" s="2">
         <v>134.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -1282,8 +2075,11 @@
       <c r="C15" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1293,8 +2089,11 @@
       <c r="C16" s="2">
         <v>43</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -1304,8 +2103,11 @@
       <c r="C17" s="2">
         <v>147</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -1315,8 +2117,11 @@
       <c r="C18" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -1326,8 +2131,11 @@
       <c r="C19" s="2">
         <v>756</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -1337,8 +2145,11 @@
       <c r="C20" s="2">
         <v>294.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -1348,8 +2159,11 @@
       <c r="C21" s="2">
         <v>90</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -1359,8 +2173,11 @@
       <c r="C22" s="2">
         <v>51</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -1370,8 +2187,11 @@
       <c r="C23" s="2">
         <v>95</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -1381,8 +2201,11 @@
       <c r="C24" s="2">
         <v>204</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -1392,8 +2215,11 @@
       <c r="C25" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -1403,8 +2229,11 @@
       <c r="C26" s="2">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
@@ -1414,8 +2243,11 @@
       <c r="C27" s="2">
         <v>1140</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
@@ -1425,8 +2257,11 @@
       <c r="C28" s="2">
         <v>1170</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
@@ -1436,8 +2271,11 @@
       <c r="C29" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
@@ -1447,8 +2285,11 @@
       <c r="C30" s="2">
         <v>360</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
@@ -1458,8 +2299,11 @@
       <c r="C31" s="2">
         <v>324.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
@@ -1469,8 +2313,11 @@
       <c r="C32" s="2">
         <v>34.5</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
@@ -1480,8 +2327,11 @@
       <c r="C33" s="2">
         <v>34.1</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
@@ -1491,8 +2341,11 @@
       <c r="C34" s="2">
         <v>507</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
@@ -1502,8 +2355,11 @@
       <c r="C35" s="2">
         <v>353.1</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
@@ -1513,8 +2369,11 @@
       <c r="C36" s="2">
         <v>69.099999999999994</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
@@ -1524,8 +2383,11 @@
       <c r="C37" s="2">
         <v>913.2</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" s="4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>3521171</v>
       </c>
@@ -1535,8 +2397,11 @@
       <c r="C38" s="2">
         <v>541</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -1546,8 +2411,11 @@
       <c r="C39" s="2">
         <v>71.8</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
@@ -1557,8 +2425,11 @@
       <c r="C40" s="2">
         <v>273</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -1568,8 +2439,11 @@
       <c r="C41" s="2">
         <v>616</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
@@ -1579,8 +2453,11 @@
       <c r="C42" s="2">
         <v>206.5</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
@@ -1590,8 +2467,11 @@
       <c r="C43" s="2">
         <v>29.5</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
@@ -1601,8 +2481,11 @@
       <c r="C44" s="2">
         <v>443.3</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
@@ -1612,8 +2495,11 @@
       <c r="C45" s="2">
         <v>240.5</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
@@ -1623,8 +2509,11 @@
       <c r="C46" s="2">
         <v>1126.5</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" s="4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
@@ -1634,8 +2523,11 @@
       <c r="C47" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
@@ -1645,8 +2537,11 @@
       <c r="C48" s="2">
         <v>56</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
@@ -1656,8 +2551,11 @@
       <c r="C49" s="2">
         <v>39.1</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
@@ -1667,8 +2565,11 @@
       <c r="C50" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
@@ -1678,8 +2579,11 @@
       <c r="C51" s="2">
         <v>413</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
@@ -1689,8 +2593,11 @@
       <c r="C52" s="2">
         <v>586.5</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
@@ -1700,8 +2607,11 @@
       <c r="C53" s="2">
         <v>46.5</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
@@ -1711,8 +2621,11 @@
       <c r="C54" s="2">
         <v>899.3</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
@@ -1722,8 +2635,11 @@
       <c r="C55" s="2">
         <v>871</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
@@ -1733,8 +2649,11 @@
       <c r="C56" s="2">
         <v>945</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
@@ -1744,8 +2663,11 @@
       <c r="C57" s="2">
         <v>152</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57" s="6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
@@ -1755,8 +2677,11 @@
       <c r="C58" s="2">
         <v>374</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
@@ -1766,8 +2691,11 @@
       <c r="C59" s="2">
         <v>469.2</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59" s="6" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
@@ -1777,8 +2705,11 @@
       <c r="C60" s="2">
         <v>1359.3</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
@@ -1788,8 +2719,11 @@
       <c r="C61" s="2">
         <v>1058.2</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61" s="6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
@@ -1799,8 +2733,11 @@
       <c r="C62" s="2">
         <v>374.5</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
@@ -1810,8 +2747,11 @@
       <c r="C63" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
@@ -1821,8 +2761,11 @@
       <c r="C64" s="2">
         <v>235</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
@@ -1832,8 +2775,11 @@
       <c r="C65" s="2">
         <v>168</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
@@ -1843,8 +2789,11 @@
       <c r="C66" s="2">
         <v>448.7</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
@@ -1854,8 +2803,11 @@
       <c r="C67" s="2">
         <v>264.8</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
@@ -1865,8 +2817,11 @@
       <c r="C68" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
@@ -1876,8 +2831,11 @@
       <c r="C69" s="2">
         <v>508.3</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
@@ -1887,8 +2845,11 @@
       <c r="C70" s="2">
         <v>295.89999999999998</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
@@ -1898,8 +2859,11 @@
       <c r="C71" s="2">
         <v>456.3</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
@@ -1909,8 +2873,11 @@
       <c r="C72" s="2">
         <v>649.20000000000005</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72" s="6" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
@@ -1920,8 +2887,11 @@
       <c r="C73" s="2">
         <v>236</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73" s="6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
@@ -1931,8 +2901,11 @@
       <c r="C74" s="2">
         <v>320.10000000000002</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74" s="6" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
@@ -1942,8 +2915,11 @@
       <c r="C75" s="2">
         <v>432</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
@@ -1953,8 +2929,11 @@
       <c r="C76" s="2">
         <v>663</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76" s="6" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
@@ -1964,8 +2943,11 @@
       <c r="C77" s="2">
         <v>442.4</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77" s="6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
@@ -1975,8 +2957,11 @@
       <c r="C78" s="2">
         <v>58.2</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
@@ -1986,8 +2971,11 @@
       <c r="C79" s="2">
         <v>320.10000000000002</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
@@ -1997,8 +2985,11 @@
       <c r="C80" s="2">
         <v>22.9</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
@@ -2008,8 +2999,11 @@
       <c r="C81" s="2">
         <v>1340</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
@@ -2019,8 +3013,11 @@
       <c r="C82" s="2">
         <v>768</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
@@ -2030,8 +3027,11 @@
       <c r="C83" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83" s="6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
@@ -2041,8 +3041,11 @@
       <c r="C84" s="2">
         <v>2925</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84" s="6" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
@@ -2052,8 +3055,11 @@
       <c r="C85" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>85</v>
       </c>
@@ -2063,8 +3069,11 @@
       <c r="C86" s="2">
         <v>114.5</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86" s="6" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>86</v>
       </c>
@@ -2074,8 +3083,11 @@
       <c r="C87" s="2">
         <v>437.5</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87" s="6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>87</v>
       </c>
@@ -2085,8 +3097,11 @@
       <c r="C88" s="2">
         <v>193.2</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88" s="6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>88</v>
       </c>
@@ -2096,8 +3111,11 @@
       <c r="C89" s="2">
         <v>686.4</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89" s="6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
@@ -2107,8 +3125,11 @@
       <c r="C90" s="2">
         <v>29.5</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90" s="6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>90</v>
       </c>
@@ -2118,8 +3139,11 @@
       <c r="C91" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91" s="6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
@@ -2129,8 +3153,11 @@
       <c r="C92" s="2">
         <v>33.5</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
@@ -2140,8 +3167,11 @@
       <c r="C93" s="2">
         <v>126</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93" s="6" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>93</v>
       </c>
@@ -2151,8 +3181,11 @@
       <c r="C94" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94" s="6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>94</v>
       </c>
@@ -2162,8 +3195,11 @@
       <c r="C95" s="2">
         <v>126</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95" s="6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>95</v>
       </c>
@@ -2173,8 +3209,11 @@
       <c r="C96" s="2">
         <v>25.2</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96" s="6" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>96</v>
       </c>
@@ -2184,8 +3223,11 @@
       <c r="C97" s="2">
         <v>50.4</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>97</v>
       </c>
@@ -2195,8 +3237,11 @@
       <c r="C98" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98" s="6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>98</v>
       </c>
@@ -2206,8 +3251,11 @@
       <c r="C99" s="2">
         <v>156.75</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99" s="6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>99</v>
       </c>
@@ -2217,8 +3265,11 @@
       <c r="C100" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100" s="6" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>100</v>
       </c>
@@ -2228,8 +3279,11 @@
       <c r="C101" s="2">
         <v>75.599999999999994</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101" s="6" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>101</v>
       </c>
@@ -2239,8 +3293,11 @@
       <c r="C102" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>102</v>
       </c>
@@ -2250,8 +3307,11 @@
       <c r="C103" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103" s="6" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>103</v>
       </c>
@@ -2261,8 +3321,11 @@
       <c r="C104" s="2">
         <v>25.2</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104" s="6" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>104</v>
       </c>
@@ -2272,8 +3335,11 @@
       <c r="C105" s="2">
         <v>226.8</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105" s="6" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>105</v>
       </c>
@@ -2283,8 +3349,11 @@
       <c r="C106" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106" s="6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>106</v>
       </c>
@@ -2294,8 +3363,11 @@
       <c r="C107" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107" s="6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>107</v>
       </c>
@@ -2305,8 +3377,11 @@
       <c r="C108" s="2">
         <v>25.2</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108" s="6" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>108</v>
       </c>
@@ -2316,8 +3391,11 @@
       <c r="C109" s="2">
         <v>50.4</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D109" s="6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>109</v>
       </c>
@@ -2327,8 +3405,11 @@
       <c r="C110" s="2">
         <v>25.2</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D110" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>110</v>
       </c>
@@ -2338,8 +3419,11 @@
       <c r="C111" s="2">
         <v>25.2</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D111" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>111</v>
       </c>
@@ -2349,8 +3433,11 @@
       <c r="C112" s="2">
         <v>156.5</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>112</v>
       </c>
@@ -2360,8 +3447,11 @@
       <c r="C113" s="2">
         <v>125.4</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>113</v>
       </c>
@@ -2371,8 +3461,11 @@
       <c r="C114" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>114</v>
       </c>
@@ -2382,8 +3475,11 @@
       <c r="C115" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115" s="7" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>115</v>
       </c>
@@ -2393,8 +3489,11 @@
       <c r="C116" s="2">
         <v>31.35</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D116" s="7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>116</v>
       </c>
@@ -2404,8 +3503,11 @@
       <c r="C117" s="2">
         <v>69</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117" s="7" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>117</v>
       </c>
@@ -2415,8 +3517,11 @@
       <c r="C118" s="2">
         <v>94.5</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118" s="7" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>118</v>
       </c>
@@ -2426,8 +3531,11 @@
       <c r="C119" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119" s="7" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>119</v>
       </c>
@@ -2437,8 +3545,11 @@
       <c r="C120" s="2">
         <v>219.45</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D120" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>120</v>
       </c>
@@ -2448,8 +3559,11 @@
       <c r="C121" s="2">
         <v>25.2</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D121" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>121</v>
       </c>
@@ -2459,8 +3573,11 @@
       <c r="C122" s="2">
         <v>25.2</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D122" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>122</v>
       </c>
@@ -2470,8 +3587,11 @@
       <c r="C123" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D123" s="7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>123</v>
       </c>
@@ -2481,8 +3601,11 @@
       <c r="C124" s="2">
         <v>31.3</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D124" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>124</v>
       </c>
@@ -2492,8 +3615,11 @@
       <c r="C125" s="2">
         <v>25.2</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D125" s="7" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>125</v>
       </c>
@@ -2503,8 +3629,11 @@
       <c r="C126" s="2">
         <v>25.2</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D126" s="7" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>126</v>
       </c>
@@ -2514,8 +3643,11 @@
       <c r="C127" s="2">
         <v>63.8</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D127" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>127</v>
       </c>
@@ -2525,8 +3657,11 @@
       <c r="C128" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D128" s="7" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>128</v>
       </c>
@@ -2536,8 +3671,11 @@
       <c r="C129" s="2">
         <v>14.2</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D129" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>129</v>
       </c>
@@ -2547,8 +3685,11 @@
       <c r="C130" s="2">
         <v>50.4</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D130" s="7" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>130</v>
       </c>
@@ -2558,8 +3699,11 @@
       <c r="C131" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D131" s="7" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>131</v>
       </c>
@@ -2569,8 +3713,11 @@
       <c r="C132" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D132" s="7" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>132</v>
       </c>
@@ -2580,8 +3727,11 @@
       <c r="C133" s="2">
         <v>25.2</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D133" s="7" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>133</v>
       </c>
@@ -2591,8 +3741,11 @@
       <c r="C134" s="2">
         <v>25.2</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D134" s="7" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>134</v>
       </c>
@@ -2602,8 +3755,11 @@
       <c r="C135" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D135" s="7" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>135</v>
       </c>
@@ -2613,8 +3769,11 @@
       <c r="C136" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D136" s="7" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>136</v>
       </c>
@@ -2624,8 +3783,11 @@
       <c r="C137" s="2">
         <v>150</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D137" s="7" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>137</v>
       </c>
@@ -2635,8 +3797,11 @@
       <c r="C138" s="2">
         <v>94.05</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D138" s="7" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>138</v>
       </c>
@@ -2646,8 +3811,11 @@
       <c r="C139" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D139" s="7" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>139</v>
       </c>
@@ -2657,8 +3825,11 @@
       <c r="C140" s="2">
         <v>25.2</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D140" s="7" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>140</v>
       </c>
@@ -2668,8 +3839,11 @@
       <c r="C141" s="2">
         <v>25.2</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D141" s="7" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>141</v>
       </c>
@@ -2679,8 +3853,11 @@
       <c r="C142" s="2">
         <v>18.350000000000001</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D142" s="7" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>142</v>
       </c>
@@ -2690,8 +3867,11 @@
       <c r="C143" s="2">
         <v>31.3</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D143" s="7" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>143</v>
       </c>
@@ -2701,8 +3881,11 @@
       <c r="C144" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D144" s="7" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>144</v>
       </c>
@@ -2712,8 +3895,11 @@
       <c r="C145" s="2">
         <v>25.2</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D145" s="7" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>145</v>
       </c>
@@ -2723,8 +3909,11 @@
       <c r="C146" s="2">
         <v>100.8</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D146" s="7" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>146</v>
       </c>
@@ -2734,8 +3923,11 @@
       <c r="C147" s="2">
         <v>345.75</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D147" s="7" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>147</v>
       </c>
@@ -2745,8 +3937,11 @@
       <c r="C148" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D148" s="7" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>148</v>
       </c>
@@ -2756,8 +3951,11 @@
       <c r="C149" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D149" s="7" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>149</v>
       </c>
@@ -2767,8 +3965,11 @@
       <c r="C150" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D150" s="7" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>150</v>
       </c>
@@ -2778,8 +3979,11 @@
       <c r="C151" s="2">
         <v>13.2</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D151" s="7" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>151</v>
       </c>
@@ -2789,8 +3993,11 @@
       <c r="C152" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D152" s="7" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>152</v>
       </c>
@@ -2800,8 +4007,11 @@
       <c r="C153" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D153" s="7" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>153</v>
       </c>
@@ -2811,8 +4021,11 @@
       <c r="C154" s="2">
         <v>673.5</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D154" s="7" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>154</v>
       </c>
@@ -2822,8 +4035,11 @@
       <c r="C155" s="2">
         <v>1352.5</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D155" s="7" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>155</v>
       </c>
@@ -2833,8 +4049,11 @@
       <c r="C156" s="2">
         <v>117</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D156" s="7" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>156</v>
       </c>
@@ -2844,8 +4063,11 @@
       <c r="C157" s="2">
         <v>45.95</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D157" s="7" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>157</v>
       </c>
@@ -2855,8 +4077,11 @@
       <c r="C158" s="2">
         <v>203.6</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D158" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>158</v>
       </c>
@@ -2866,8 +4091,11 @@
       <c r="C159" s="2">
         <v>62.9</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D159" s="7" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>159</v>
       </c>
@@ -2877,8 +4105,11 @@
       <c r="C160" s="2">
         <v>39.5</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D160" s="7" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>160</v>
       </c>
@@ -2888,8 +4119,11 @@
       <c r="C161" s="2">
         <v>34.9</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D161" s="7" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>161</v>
       </c>
@@ -2899,8 +4133,11 @@
       <c r="C162" s="2">
         <v>82.9</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D162" s="7" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>162</v>
       </c>
@@ -2910,8 +4147,11 @@
       <c r="C163" s="2">
         <v>89.9</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D163" s="7" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>163</v>
       </c>
@@ -2921,8 +4161,11 @@
       <c r="C164" s="2">
         <v>89.9</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D164" s="7" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>164</v>
       </c>
@@ -2932,8 +4175,11 @@
       <c r="C165" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D165" s="7" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>165</v>
       </c>
@@ -2943,8 +4189,11 @@
       <c r="C166" s="2">
         <v>76.900000000000006</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D166" s="7" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>166</v>
       </c>
@@ -2954,8 +4203,11 @@
       <c r="C167" s="2">
         <v>45.9</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D167" s="7" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>167</v>
       </c>
@@ -2965,8 +4217,11 @@
       <c r="C168" s="2">
         <v>79</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D168" s="7" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>168</v>
       </c>
@@ -2976,8 +4231,11 @@
       <c r="C169" s="2">
         <v>59.9</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D169" s="7" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>169</v>
       </c>
@@ -2987,8 +4245,11 @@
       <c r="C170" s="2">
         <v>65</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D170" s="7" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>170</v>
       </c>
@@ -2998,8 +4259,11 @@
       <c r="C171" s="2">
         <v>49.8</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D171" s="7" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>171</v>
       </c>
@@ -3009,8 +4273,11 @@
       <c r="C172" s="2">
         <v>75.5</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D172" s="7" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>172</v>
       </c>
@@ -3020,8 +4287,11 @@
       <c r="C173" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D173" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>173</v>
       </c>
@@ -3031,8 +4301,11 @@
       <c r="C174" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D174" s="8" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>174</v>
       </c>
@@ -3042,8 +4315,11 @@
       <c r="C175" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D175" s="8" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>175</v>
       </c>
@@ -3053,8 +4329,11 @@
       <c r="C176" s="2">
         <v>46.5</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D176" s="8" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>176</v>
       </c>
@@ -3064,8 +4343,11 @@
       <c r="C177" s="2">
         <v>269.10000000000002</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D177" s="8" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>177</v>
       </c>
@@ -3075,8 +4357,11 @@
       <c r="C178" s="2">
         <v>15.3</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D178" s="8" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>178</v>
       </c>
@@ -3086,8 +4371,11 @@
       <c r="C179" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D179" s="8" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>179</v>
       </c>
@@ -3097,8 +4385,11 @@
       <c r="C180" s="2">
         <v>118.5</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D180" s="8" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>180</v>
       </c>
@@ -3108,8 +4399,11 @@
       <c r="C181" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D181" s="8" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>181</v>
       </c>
@@ -3119,8 +4413,11 @@
       <c r="C182" s="2">
         <v>97.65</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D182" s="8" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>182</v>
       </c>
@@ -3130,8 +4427,11 @@
       <c r="C183" s="2">
         <v>526.70000000000005</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D183" s="8" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>183</v>
       </c>
@@ -3141,8 +4441,11 @@
       <c r="C184" s="2">
         <v>328.8</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D184" s="8" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>184</v>
       </c>
@@ -3152,8 +4455,11 @@
       <c r="C185" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D185" s="8" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>185</v>
       </c>
@@ -3163,8 +4469,11 @@
       <c r="C186" s="2">
         <v>18.350000000000001</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D186" s="8" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>186</v>
       </c>
@@ -3174,8 +4483,11 @@
       <c r="C187" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D187" s="8" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>187</v>
       </c>
@@ -3185,8 +4497,11 @@
       <c r="C188" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D188" s="8" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>188</v>
       </c>
@@ -3196,8 +4511,11 @@
       <c r="C189" s="2">
         <v>39.6</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D189" s="8" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>189</v>
       </c>
@@ -3207,8 +4525,11 @@
       <c r="C190" s="2">
         <v>21.9</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D190" s="8" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>190</v>
       </c>
@@ -3218,8 +4539,11 @@
       <c r="C191" s="2">
         <v>28.5</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D191" s="8" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>191</v>
       </c>
@@ -3229,8 +4553,11 @@
       <c r="C192" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D192" s="8" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>192</v>
       </c>
@@ -3240,8 +4567,11 @@
       <c r="C193" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D193" s="8" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>193</v>
       </c>
@@ -3251,8 +4581,11 @@
       <c r="C194" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D194" s="8" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>194</v>
       </c>
@@ -3262,8 +4595,11 @@
       <c r="C195" s="2">
         <v>3639.9</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D195" s="8" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>195</v>
       </c>
@@ -3273,8 +4609,11 @@
       <c r="C196" s="2">
         <v>25.1</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D196" s="8" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>196</v>
       </c>
@@ -3284,8 +4623,11 @@
       <c r="C197" s="2">
         <v>119.4</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D197" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>197</v>
       </c>
@@ -3295,8 +4637,11 @@
       <c r="C198" s="2">
         <v>188.55</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D198" s="8" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>198</v>
       </c>
@@ -3306,8 +4651,11 @@
       <c r="C199" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D199" s="8" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>199</v>
       </c>
@@ -3317,8 +4665,11 @@
       <c r="C200" s="2">
         <v>728</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D200" s="8" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>200</v>
       </c>
@@ -3328,8 +4679,11 @@
       <c r="C201" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D201" s="8" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>201</v>
       </c>
@@ -3339,8 +4693,11 @@
       <c r="C202" s="2">
         <v>61.9</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D202" s="8" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>202</v>
       </c>
@@ -3350,8 +4707,11 @@
       <c r="C203" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D203" s="8" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>203</v>
       </c>
@@ -3361,8 +4721,11 @@
       <c r="C204" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D204" s="8" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>204</v>
       </c>
@@ -3372,8 +4735,11 @@
       <c r="C205" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D205" s="8" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>205</v>
       </c>
@@ -3383,8 +4749,11 @@
       <c r="C206" s="2">
         <v>61.9</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D206" s="8" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>206</v>
       </c>
@@ -3394,8 +4763,11 @@
       <c r="C207" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D207" s="8" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>207</v>
       </c>
@@ -3405,8 +4777,11 @@
       <c r="C208" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D208" s="8" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>208</v>
       </c>
@@ -3416,8 +4791,11 @@
       <c r="C209" s="2">
         <v>31</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D209" s="8" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>209</v>
       </c>
@@ -3427,8 +4805,11 @@
       <c r="C210" s="2">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D210" s="8" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>210</v>
       </c>
@@ -3438,8 +4819,11 @@
       <c r="C211" s="2">
         <v>22.9</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D211" s="8" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>211</v>
       </c>
@@ -3449,8 +4833,11 @@
       <c r="C212" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D212" s="8" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>212</v>
       </c>
@@ -3460,8 +4847,11 @@
       <c r="C213" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D213" s="8" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>213</v>
       </c>
@@ -3471,8 +4861,11 @@
       <c r="C214" s="2">
         <v>20.9</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D214" s="8" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>214</v>
       </c>
@@ -3482,8 +4875,11 @@
       <c r="C215" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D215" s="8" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>215</v>
       </c>
@@ -3493,8 +4889,11 @@
       <c r="C216" s="2">
         <v>3996</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D216" s="8" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>216</v>
       </c>
@@ -3504,8 +4903,11 @@
       <c r="C217" s="2">
         <v>243.1</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D217" s="8" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>217</v>
       </c>
@@ -3515,8 +4917,11 @@
       <c r="C218" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D218" s="8" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>218</v>
       </c>
@@ -3526,8 +4931,11 @@
       <c r="C219" s="2">
         <v>102</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D219" s="8" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>219</v>
       </c>
@@ -3537,8 +4945,11 @@
       <c r="C220" s="2">
         <v>3069</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D220" s="8" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>220</v>
       </c>
@@ -3548,8 +4959,11 @@
       <c r="C221" s="2">
         <v>262.5</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D221" s="8" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>221</v>
       </c>
@@ -3559,8 +4973,11 @@
       <c r="C222" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D222" s="8" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>222</v>
       </c>
@@ -3570,8 +4987,11 @@
       <c r="C223" s="2">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D223" s="8" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>223</v>
       </c>
@@ -3581,8 +5001,11 @@
       <c r="C224" s="2">
         <v>47.5</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D224" s="8" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>224</v>
       </c>
@@ -3592,8 +5015,11 @@
       <c r="C225" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D225" s="8" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>225</v>
       </c>
@@ -3603,8 +5029,11 @@
       <c r="C226" s="2">
         <v>94</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D226" s="8" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>226</v>
       </c>
@@ -3614,8 +5043,11 @@
       <c r="C227" s="2">
         <v>815.9</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D227" s="8" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>227</v>
       </c>
@@ -3625,8 +5057,11 @@
       <c r="C228" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D228" s="8" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>228</v>
       </c>
@@ -3636,8 +5071,11 @@
       <c r="C229" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D229" s="8" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>229</v>
       </c>
@@ -3647,8 +5085,11 @@
       <c r="C230" s="2">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D230" s="8" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>230</v>
       </c>
@@ -3658,8 +5099,11 @@
       <c r="C231" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D231" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>231</v>
       </c>
@@ -3669,8 +5113,11 @@
       <c r="C232" s="2">
         <v>55.8</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D232" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>232</v>
       </c>
@@ -3680,8 +5127,11 @@
       <c r="C233" s="2">
         <v>125.8</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D233" s="10" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>233</v>
       </c>
@@ -3691,8 +5141,11 @@
       <c r="C234" s="2">
         <v>34.5</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D234" s="9" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>234</v>
       </c>
@@ -3702,8 +5155,11 @@
       <c r="C235" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D235" s="9" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>235</v>
       </c>
@@ -3713,8 +5169,11 @@
       <c r="C236" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D236" s="9" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>236</v>
       </c>
@@ -3724,8 +5183,11 @@
       <c r="C237" s="2">
         <v>49</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D237" s="9" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>237</v>
       </c>
@@ -3735,8 +5197,11 @@
       <c r="C238" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D238" s="9" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>238</v>
       </c>
@@ -3746,8 +5211,11 @@
       <c r="C239" s="2">
         <v>14.9</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D239" s="9" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>239</v>
       </c>
@@ -3757,8 +5225,11 @@
       <c r="C240" s="2">
         <v>36.700000000000003</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D240" s="9" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>240</v>
       </c>
@@ -3768,8 +5239,11 @@
       <c r="C241" s="2">
         <v>73.8</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D241" s="9" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>241</v>
       </c>
@@ -3779,8 +5253,11 @@
       <c r="C242" s="2">
         <v>99</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D242" s="9" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>242</v>
       </c>
@@ -3790,8 +5267,11 @@
       <c r="C243" s="2">
         <v>59.6</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D243" s="9" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>243</v>
       </c>
@@ -3801,8 +5281,11 @@
       <c r="C244" s="2">
         <v>59</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D244" s="9" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>244</v>
       </c>
@@ -3812,8 +5295,11 @@
       <c r="C245" s="2">
         <v>45.8</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D245" s="9" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>245</v>
       </c>
@@ -3823,8 +5309,11 @@
       <c r="C246" s="2">
         <v>35.4</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D246" s="9" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>246</v>
       </c>
@@ -3834,8 +5323,11 @@
       <c r="C247" s="2">
         <v>51.9</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D247" s="9" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>247</v>
       </c>
@@ -3845,8 +5337,11 @@
       <c r="C248" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D248" s="9" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>248</v>
       </c>
@@ -3856,8 +5351,11 @@
       <c r="C249" s="2">
         <v>347.6</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D249" s="9" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>249</v>
       </c>
@@ -3867,8 +5365,11 @@
       <c r="C250" s="2">
         <v>1142.5</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D250" s="9" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>250</v>
       </c>
@@ -3877,6 +5378,9 @@
       </c>
       <c r="C251" s="2">
         <v>45.9</v>
+      </c>
+      <c r="D251" s="9" t="s">
+        <v>497</v>
       </c>
     </row>
   </sheetData>
